--- a/20180620アドバンススケジュール.xlsx
+++ b/20180620アドバンススケジュール.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a-pro/Desktop/Z DRIVE/posi-work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F7EB1B-F890-BD4C-9D7B-25BBD317A534}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80878B0E-A083-6247-A832-014061B7FE0A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23700" windowHeight="17540" tabRatio="979" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23700" windowHeight="17540" tabRatio="979" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Ad-6" sheetId="7" r:id="rId1"/>
-    <sheet name="Ad-5" sheetId="6" r:id="rId2"/>
-    <sheet name="Ad-４" sheetId="5" r:id="rId3"/>
-    <sheet name="Ad-3" sheetId="4" r:id="rId4"/>
-    <sheet name="Ad-2" sheetId="3" r:id="rId5"/>
-    <sheet name="Ad-1" sheetId="1" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId7"/>
+    <sheet name="Ad-8" sheetId="9" r:id="rId1"/>
+    <sheet name="Ad-7" sheetId="7" r:id="rId2"/>
+    <sheet name="Ad-６" sheetId="8" r:id="rId3"/>
+    <sheet name="Ad-5" sheetId="6" r:id="rId4"/>
+    <sheet name="Ad-４" sheetId="5" r:id="rId5"/>
+    <sheet name="Ad-3" sheetId="4" r:id="rId6"/>
+    <sheet name="Ad-2" sheetId="3" r:id="rId7"/>
+    <sheet name="Ad-1" sheetId="1" r:id="rId8"/>
   </sheets>
   <calcPr calcId="179016"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="169">
   <si>
     <t>6日目</t>
   </si>
@@ -90,346 +91,571 @@
     <t>デモ</t>
   </si>
   <si>
-    <t>＊デザイン紹介</t>
-  </si>
-  <si>
     <t>制作開始</t>
   </si>
   <si>
+    <t>お昼休み（１H)</t>
+  </si>
+  <si>
+    <t>カット開始</t>
+  </si>
+  <si>
+    <t>　＊デモ：制作例の紹介　温度の差による変化</t>
+  </si>
+  <si>
+    <t>時間に余裕がある場合：自由作品も制作可</t>
+  </si>
+  <si>
+    <t>終了</t>
+  </si>
+  <si>
+    <t>焼成の指示</t>
+  </si>
+  <si>
+    <t>　スティックフュージング（680~700℃）</t>
+  </si>
+  <si>
+    <t>次回【５A】【５B】の課題作品を持ってくる</t>
+  </si>
+  <si>
+    <t>5日目</t>
+  </si>
+  <si>
+    <t>【5A】三角カット　【5B】スティックフュージング　－1.6ｍｍ厚の日ー</t>
+  </si>
+  <si>
+    <t>　　【4A】チェックストリンガーの課題作品講評</t>
+  </si>
+  <si>
+    <t>【5A】三角カット　スタート　デザイン画アリ</t>
+  </si>
+  <si>
+    <t>　正確な直線カット・同じ形にカット</t>
+  </si>
+  <si>
+    <t>　＊デモ：三角形の図案の作り方・正確なカット</t>
+  </si>
+  <si>
+    <t>　オーバーラップ・フル＋サギング（5ミリFB）</t>
+  </si>
+  <si>
+    <t>ずれ込む可能性アリ</t>
+  </si>
+  <si>
+    <t>ずれた分は繰り下げ</t>
+  </si>
+  <si>
+    <t>【5B】スティックフュージング</t>
+  </si>
+  <si>
+    <t>　カットを丁寧に、温度管理、FBで支える</t>
+  </si>
+  <si>
+    <t>4日目</t>
+  </si>
+  <si>
+    <t>【4A】チェック　ストリンガー　【4B】お披露目会</t>
+  </si>
+  <si>
+    <t>　　【3AB】うねり市松・ミルフィオリの課題作品講評</t>
+  </si>
+  <si>
+    <t>【4A】チェック　カラーストリンガースタート　</t>
+  </si>
+  <si>
+    <t>　泡ストリンガーとの違いを明確に・フル焼成後の板をカット</t>
+  </si>
+  <si>
+    <t>　＊デモ：フル焼成後の板カット・四角・丸・自由形へ</t>
+  </si>
+  <si>
+    <t>　</t>
+  </si>
+  <si>
+    <t>　フルフュージング＋サギングorスランピング（選択可）</t>
+  </si>
+  <si>
+    <t>片付け</t>
+  </si>
+  <si>
+    <t>テーブルセッティング</t>
+  </si>
+  <si>
+    <t>【4B】お披露目会　スタート</t>
+  </si>
+  <si>
+    <t>　講評ポイント</t>
+  </si>
+  <si>
+    <t>　　課題のポイントを踏まえた上での自由制作</t>
+  </si>
+  <si>
+    <t>次回【4A】チェックストリンガーの課題作品を持ってくる</t>
+  </si>
+  <si>
+    <t>3日目</t>
+  </si>
+  <si>
+    <t>【3A】うねり市松　【3B】ミルフィオリ・雲母</t>
+  </si>
+  <si>
+    <t>　　【2AB】ターゲット・泡ストリンガーの課題作品講評</t>
+  </si>
+  <si>
+    <t>【3A】うねり市松　スタート　デザイン画アリ</t>
+  </si>
+  <si>
+    <t>　曲線カット・色合わせ・高さのあるサギング　分割数は6以上</t>
+  </si>
+  <si>
+    <t>　＊デモ：型紙を使ってカット</t>
+  </si>
+  <si>
+    <t>　＊デモ：高さを出すサギング</t>
+  </si>
+  <si>
+    <t>　複合レイアウト＋サギング（5ミリFBで高さ1cmを出す）</t>
+  </si>
+  <si>
+    <t>【3B】ミルフィオリ・雲母</t>
+  </si>
+  <si>
+    <t>机の上のガラスを片付ける→他のガラスを使う環境へチェンジ</t>
+  </si>
+  <si>
+    <t>①ミルフィオリ・COE104の特殊性・COE90と混ぜない・デザイン提案など</t>
+  </si>
+  <si>
+    <t>　＊デモ：ミルフィオリの使い方</t>
+  </si>
+  <si>
+    <t>課題のポイント</t>
+  </si>
+  <si>
+    <t>②雲母とは？、雲母の使い方</t>
+  </si>
+  <si>
+    <t>　＊デモ：雲母</t>
+  </si>
+  <si>
+    <t>　フルフュージング＋アクセサリーは仕立ててくる</t>
+  </si>
+  <si>
+    <t>宿題説明</t>
+  </si>
+  <si>
+    <t>前半お披露目会の説明</t>
+  </si>
+  <si>
+    <t>　　　　　説明済み【4A】カラーストリンガーのストライプ板を作ってくる</t>
+  </si>
+  <si>
+    <t>次回【4A】焼いたストリンガーの板を持ってくる</t>
+  </si>
+  <si>
+    <t>　　【3A】【3B】の課題作品を持ってくる</t>
+  </si>
+  <si>
+    <t>　　　お披露目会用自由制作作品を持ってくる</t>
+  </si>
+  <si>
+    <t>2日目</t>
+  </si>
+  <si>
+    <t>【2A】ターゲット　【2B】泡・カラーストリンガー</t>
+  </si>
+  <si>
+    <t>　　【１B】ずらし市松の課題作品講評</t>
+  </si>
+  <si>
+    <t>【2A】ターゲット　スタート　デザイン画アリ</t>
+  </si>
+  <si>
+    <t>　カットの精度・型紙の使い方・ガラスを使った型の取り方</t>
+  </si>
+  <si>
+    <t>　　　　　確認：縦補助スコアやる？</t>
+  </si>
+  <si>
+    <t>　オーバーラップ＋スランピングorサギング（5ミリFB）（選択可）</t>
+  </si>
+  <si>
+    <t>お昼休み</t>
+  </si>
+  <si>
+    <t>【2B】泡・カラーストリンガー</t>
+  </si>
+  <si>
+    <t>課題ポイント　サンプル（ストリンガーOP/TPの差）</t>
+  </si>
+  <si>
+    <t>　カラーストリンガーの特性・熔け方の違い　泡の作り方</t>
+  </si>
+  <si>
+    <t>　デモ：棒やすりの使い方・泡の入れ方</t>
+  </si>
+  <si>
+    <t>製作開始</t>
+  </si>
+  <si>
+    <t>円を2枚カット</t>
+  </si>
+  <si>
+    <t>その上にカラーストリンガーをレイアウト</t>
+  </si>
+  <si>
+    <t>　＊デモ：FBを使ってスランピング型を作る</t>
+  </si>
+  <si>
+    <t>　2枚重ね＋FBを使ってスランピング</t>
+  </si>
+  <si>
+    <t>【4A】カラーストリンガーのストライプ板を作ってくる</t>
+  </si>
+  <si>
+    <t>次回【3B】ミルフィオリ用のガラス入れ（16角が入る程度）を持ってくる</t>
+  </si>
+  <si>
+    <t>　　【2A】【2B】の課題作品を持ってくる　</t>
+  </si>
+  <si>
+    <t>1日目</t>
+  </si>
+  <si>
+    <t>AM:全体オリエン　PM:【１B】ずらし市松</t>
+  </si>
+  <si>
+    <t>全体</t>
+  </si>
+  <si>
+    <t>・講座概要</t>
+  </si>
+  <si>
+    <t>オリエンテーション</t>
+  </si>
+  <si>
+    <t>・講座説明</t>
+  </si>
+  <si>
+    <t>・アドバンスとは</t>
+  </si>
+  <si>
+    <t>　　課題作品の意味</t>
+  </si>
+  <si>
+    <t>　　自由作品制作について</t>
+  </si>
+  <si>
+    <t>　　お披露目会について</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>【1B】ずらし市松</t>
+  </si>
+  <si>
+    <t>【１B】ずらし市松　スタート　デザイン画アリ</t>
+  </si>
+  <si>
+    <t>オリエン</t>
+  </si>
+  <si>
+    <t>課題ポイント説明</t>
+  </si>
+  <si>
+    <t>　ポイント：直線/直角カット＆色重ね</t>
+  </si>
+  <si>
+    <t>　＊デモ：カットテクニック　サイズ　ずらし方　色重ね説明デモ</t>
+  </si>
+  <si>
+    <t>練習</t>
+  </si>
+  <si>
+    <t>カット練習　（クリアで→パーツとして使用も可）</t>
+  </si>
+  <si>
+    <t>　サイズ通りにカットする</t>
+  </si>
+  <si>
+    <t>　＊デモ：正方形カットデモ（9コマずつの重ね）</t>
+  </si>
+  <si>
+    <t>ガラス選び</t>
+  </si>
+  <si>
+    <t>　講師：色合わせの色見本を見せながら</t>
+  </si>
+  <si>
+    <t>　まずは上下９コマずつ切って並べて、重ねて確認</t>
+  </si>
+  <si>
+    <t>全体パーツカットへ</t>
+  </si>
+  <si>
+    <t>パーツカット途中で</t>
+  </si>
+  <si>
+    <t>　＊デモ：パーツのカット終了を見計らって、合わせ分のカットデモ</t>
+  </si>
+  <si>
+    <t>レイアウト</t>
+  </si>
+  <si>
+    <t>上下のレイヤーをレイアウト。マスキングテープ使用</t>
+  </si>
+  <si>
+    <t>レイアウト終了</t>
+  </si>
+  <si>
+    <t>完成</t>
+  </si>
+  <si>
+    <t>質疑応答</t>
+  </si>
+  <si>
+    <t>焼成の指示　</t>
+  </si>
+  <si>
+    <t>複合レイアウト＋スランピング（型：自由）</t>
+  </si>
+  <si>
+    <t>次回【１B】ずらし市松　課題作品を持ってくる（自由作品は4Bのお披露目会で）</t>
+  </si>
+  <si>
+    <t>プレゼン</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
     <t>デザイン開始</t>
-  </si>
-  <si>
-    <t>デザインが終わった人からカット開始</t>
-  </si>
-  <si>
-    <t>お昼休み（１H)</t>
-  </si>
-  <si>
-    <t>カット開始</t>
-  </si>
-  <si>
-    <t>　＊デモ：制作例の紹介　温度の差による変化</t>
-  </si>
-  <si>
-    <t>時間に余裕がある場合：自由作品も制作可</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>制作開始</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>どんなデザインにしたのか。なぜそうしたのか、どんな花を生けるのか。</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>モールド説明</t>
+    <rPh sb="0" eb="1">
+      <t>セt</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t xml:space="preserve">高さのあるサギング </t>
+    <rPh sb="0" eb="1">
+      <t>タカs</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>デモ</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>　＊サギング窯入れ　サギングの説明</t>
+    <rPh sb="33" eb="35">
+      <t>セツメ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>　フルフュージング＋高さのあるサギング（２cm）</t>
+    <rPh sb="0" eb="1">
+      <t>タカs</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>終了</t>
-  </si>
-  <si>
-    <t>焼成の指示</t>
-  </si>
-  <si>
-    <t>　スティックフュージング（680~700℃）</t>
-  </si>
-  <si>
-    <t>次回【５A】【５B】の課題作品を持ってくる</t>
-  </si>
-  <si>
-    <t>5日目</t>
-  </si>
-  <si>
-    <t>【5A】三角カット　【5B】スティックフュージング　－1.6ｍｍ厚の日ー</t>
-  </si>
-  <si>
-    <t>　　【4A】チェックストリンガーの課題作品講評</t>
-  </si>
-  <si>
-    <t>【5A】三角カット　スタート　デザイン画アリ</t>
-  </si>
-  <si>
-    <t>　正確な直線カット・同じ形にカット</t>
-  </si>
-  <si>
-    <t>　＊デモ：三角形の図案の作り方・正確なカット</t>
-  </si>
-  <si>
-    <t>　オーバーラップ・フル＋サギング（5ミリFB）</t>
-  </si>
-  <si>
-    <t>ずれ込む可能性アリ</t>
-  </si>
-  <si>
-    <t>ずれた分は繰り下げ</t>
-  </si>
-  <si>
-    <t>【5B】スティックフュージング</t>
-  </si>
-  <si>
-    <t>　カットを丁寧に、温度管理、FBで支える</t>
-  </si>
-  <si>
-    <t>4日目</t>
-  </si>
-  <si>
-    <t>【4A】チェック　ストリンガー　【4B】お披露目会</t>
-  </si>
-  <si>
-    <t>　　【3AB】うねり市松・ミルフィオリの課題作品講評</t>
-  </si>
-  <si>
-    <t>【4A】チェック　カラーストリンガースタート　</t>
-  </si>
-  <si>
-    <t>　泡ストリンガーとの違いを明確に・フル焼成後の板をカット</t>
-  </si>
-  <si>
-    <t>　＊デモ：フル焼成後の板カット・四角・丸・自由形へ</t>
-  </si>
-  <si>
-    <t>　</t>
-  </si>
-  <si>
-    <t>　フルフュージング＋サギングorスランピング（選択可）</t>
-  </si>
-  <si>
-    <t>片付け</t>
-  </si>
-  <si>
-    <t>テーブルセッティング</t>
-  </si>
-  <si>
-    <t>【4B】お披露目会　スタート</t>
-  </si>
-  <si>
-    <t>　講評ポイント</t>
-  </si>
-  <si>
-    <t>　　課題のポイントを踏まえた上での自由制作</t>
-  </si>
-  <si>
-    <t>次回【4A】チェックストリンガーの課題作品を持ってくる</t>
-  </si>
-  <si>
-    <t>3日目</t>
-  </si>
-  <si>
-    <t>【3A】うねり市松　【3B】ミルフィオリ・雲母</t>
-  </si>
-  <si>
-    <t>　　【2AB】ターゲット・泡ストリンガーの課題作品講評</t>
-  </si>
-  <si>
-    <t>【3A】うねり市松　スタート　デザイン画アリ</t>
-  </si>
-  <si>
-    <t>　曲線カット・色合わせ・高さのあるサギング　分割数は6以上</t>
-  </si>
-  <si>
-    <t>　＊デモ：型紙を使ってカット</t>
-  </si>
-  <si>
-    <t>　＊デモ：高さを出すサギング</t>
-  </si>
-  <si>
-    <t>　複合レイアウト＋サギング（5ミリFBで高さ1cmを出す）</t>
-  </si>
-  <si>
-    <t>【3B】ミルフィオリ・雲母</t>
-  </si>
-  <si>
-    <t>机の上のガラスを片付ける→他のガラスを使う環境へチェンジ</t>
-  </si>
-  <si>
-    <t>①ミルフィオリ・COE104の特殊性・COE90と混ぜない・デザイン提案など</t>
-  </si>
-  <si>
-    <t>　＊デモ：ミルフィオリの使い方</t>
-  </si>
-  <si>
-    <t>課題のポイント</t>
-  </si>
-  <si>
-    <t>②雲母とは？、雲母の使い方</t>
-  </si>
-  <si>
-    <t>　＊デモ：雲母</t>
-  </si>
-  <si>
-    <t>　フルフュージング＋アクセサリーは仕立ててくる</t>
-  </si>
-  <si>
-    <t>宿題説明</t>
-  </si>
-  <si>
-    <t>前半お披露目会の説明</t>
-  </si>
-  <si>
-    <t>　　　　　説明済み【4A】カラーストリンガーのストライプ板を作ってくる</t>
-  </si>
-  <si>
-    <t>次回【4A】焼いたストリンガーの板を持ってくる</t>
-  </si>
-  <si>
-    <t>　　【3A】【3B】の課題作品を持ってくる</t>
-  </si>
-  <si>
-    <t>　　　お披露目会用自由制作作品を持ってくる</t>
-  </si>
-  <si>
-    <t>2日目</t>
-  </si>
-  <si>
-    <t>【2A】ターゲット　【2B】泡・カラーストリンガー</t>
-  </si>
-  <si>
-    <t>　　【１B】ずらし市松の課題作品講評</t>
-  </si>
-  <si>
-    <t>【2A】ターゲット　スタート　デザイン画アリ</t>
-  </si>
-  <si>
-    <t>　カットの精度・型紙の使い方・ガラスを使った型の取り方</t>
-  </si>
-  <si>
-    <t>　　　　　確認：縦補助スコアやる？</t>
-  </si>
-  <si>
-    <t>　オーバーラップ＋スランピングorサギング（5ミリFB）（選択可）</t>
-  </si>
-  <si>
-    <t>お昼休み</t>
-  </si>
-  <si>
-    <t>【2B】泡・カラーストリンガー</t>
-  </si>
-  <si>
-    <t>課題ポイント　サンプル（ストリンガーOP/TPの差）</t>
-  </si>
-  <si>
-    <t>　カラーストリンガーの特性・熔け方の違い　泡の作り方</t>
-  </si>
-  <si>
-    <t>　デモ：棒やすりの使い方・泡の入れ方</t>
-  </si>
-  <si>
-    <t>製作開始</t>
-  </si>
-  <si>
-    <t>円を2枚カット</t>
-  </si>
-  <si>
-    <t>その上にカラーストリンガーをレイアウト</t>
-  </si>
-  <si>
-    <t>　＊デモ：FBを使ってスランピング型を作る</t>
-  </si>
-  <si>
-    <t>　2枚重ね＋FBを使ってスランピング</t>
-  </si>
-  <si>
-    <t>【4A】カラーストリンガーのストライプ板を作ってくる</t>
-  </si>
-  <si>
-    <t>次回【3B】ミルフィオリ用のガラス入れ（16角が入る程度）を持ってくる</t>
-  </si>
-  <si>
-    <t>　　【2A】【2B】の課題作品を持ってくる　</t>
-  </si>
-  <si>
-    <t>1日目</t>
-  </si>
-  <si>
-    <t>AM:全体オリエン　PM:【１B】ずらし市松</t>
-  </si>
-  <si>
-    <t>全体</t>
-  </si>
-  <si>
-    <t>・講座概要</t>
-  </si>
-  <si>
-    <t>オリエンテーション</t>
-  </si>
-  <si>
-    <t>・講座説明</t>
-  </si>
-  <si>
-    <t>・アドバンスとは</t>
-  </si>
-  <si>
-    <t>　　課題作品の意味</t>
-  </si>
-  <si>
-    <t>　　自由作品制作について</t>
-  </si>
-  <si>
-    <t>　　お披露目会について</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>【1B】ずらし市松</t>
-  </si>
-  <si>
-    <t>【１B】ずらし市松　スタート　デザイン画アリ</t>
-  </si>
-  <si>
-    <t>オリエン</t>
-  </si>
-  <si>
-    <t>課題ポイント説明</t>
-  </si>
-  <si>
-    <t>　ポイント：直線/直角カット＆色重ね</t>
-  </si>
-  <si>
-    <t>　＊デモ：カットテクニック　サイズ　ずらし方　色重ね説明デモ</t>
-  </si>
-  <si>
-    <t>練習</t>
-  </si>
-  <si>
-    <t>カット練習　（クリアで→パーツとして使用も可）</t>
-  </si>
-  <si>
-    <t>　サイズ通りにカットする</t>
-  </si>
-  <si>
-    <t>　＊デモ：正方形カットデモ（9コマずつの重ね）</t>
-  </si>
-  <si>
-    <t>ガラス選び</t>
-  </si>
-  <si>
-    <t>　講師：色合わせの色見本を見せながら</t>
-  </si>
-  <si>
-    <t>　まずは上下９コマずつ切って並べて、重ねて確認</t>
-  </si>
-  <si>
-    <t>全体パーツカットへ</t>
-  </si>
-  <si>
-    <t>パーツカット途中で</t>
-  </si>
-  <si>
-    <t>　＊デモ：パーツのカット終了を見計らって、合わせ分のカットデモ</t>
-  </si>
-  <si>
-    <t>レイアウト</t>
-  </si>
-  <si>
-    <t>上下のレイヤーをレイアウト。マスキングテープ使用</t>
-  </si>
-  <si>
-    <t>レイアウト終了</t>
-  </si>
-  <si>
-    <t>完成</t>
-  </si>
-  <si>
-    <t>質疑応答</t>
-  </si>
-  <si>
-    <t>焼成の指示　</t>
-  </si>
-  <si>
-    <t>複合レイアウト＋スランピング（型：自由）</t>
-  </si>
-  <si>
-    <t>次回【１B】ずらし市松　課題作品を持ってくる（自由作品は4Bのお披露目会で）</t>
+    <rPh sb="0" eb="1">
+      <t>シュウry</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>サギングの原理説明</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンr</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>　落ち方の要素：①温度　②厚み　③色　④高さ　⑤口の大きさ</t>
+    <rPh sb="29" eb="30">
+      <t>オt</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>終了</t>
+    <rPh sb="0" eb="1">
+      <t>シュウリョ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>7日目</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>【7AB】壁掛け花入れ</t>
+    <rPh sb="0" eb="1">
+      <t>カケハナイr</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>　　【6AB】ミニ水盤の課題作品講評</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>【7AB】壁掛け花入れ　スタート　デザイン画アリ</t>
+    <rPh sb="0" eb="1">
+      <t>カb</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>　水入れ・壁にガラスを掛ける方法・曲線カット</t>
+    <rPh sb="0" eb="1">
+      <t>ミz</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>＊型紙を使った曲線カット</t>
+    <rPh sb="0" eb="1">
+      <t>カタガm</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>終わった人は自由制作のデザイン・制作</t>
+    <rPh sb="0" eb="1">
+      <t>オワッタh</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>課題説明</t>
+    <rPh sb="0" eb="2">
+      <t>カダ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>型の作り方</t>
+    <rPh sb="0" eb="1">
+      <t>カタn</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>　＊FBでの型を作る</t>
+    <rPh sb="10" eb="11">
+      <t>カt</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>　フルフュージング</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>次回【7AB】の課題作品を持ってくる</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>4A以降の自由制作作品持参</t>
+    <rPh sb="0" eb="1">
+      <t>イコ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>掛け花用ピンを持参</t>
+    <rPh sb="0" eb="1">
+      <t>カケハナy</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>フックの説明</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>終了</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>次回【6AB】の課題作品を持ってくる</t>
+    <rPh sb="0" eb="2">
+      <t>６A</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>８日目</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>【8A】掛け花入れ　【4B】お披露目会</t>
+    <rPh sb="0" eb="1">
+      <t>カケh</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>　　【7AB】壁掛け花入れの課題作品講評</t>
+    <rPh sb="0" eb="1">
+      <t>カb</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>【4A】壁掛け花入れ　スタート　</t>
+    <rPh sb="0" eb="1">
+      <t>カb</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>　FBの取り出し・ピンの穴あけ</t>
+    <rPh sb="0" eb="1">
+      <t>アn</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>　＊デモ：　FBの取り出し・ピンの穴あけ</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>【8B】お披露目会　スタート</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>修了式</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>修了書授与</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
   </si>
 </sst>
 </file>
@@ -439,7 +665,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -494,6 +720,27 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="メイリオ"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -766,7 +1013,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -895,6 +1142,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1276,11 +1530,688 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72876C56-7EA6-4267-9E44-4ACD1CE24551}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A590C1C-9552-034E-BF7A-2B663C4C6911}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35:C35"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="14.796875" customWidth="1"/>
+    <col min="2" max="2" width="22.796875" customWidth="1"/>
+    <col min="3" max="3" width="80.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="27" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="27" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18" customHeight="1">
+      <c r="A3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18" customHeight="1">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18" customHeight="1">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18" customHeight="1">
+      <c r="A6" s="16">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" spans="1:3" ht="18" customHeight="1">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="18" customHeight="1">
+      <c r="A8" s="18"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18" customHeight="1">
+      <c r="A9" s="20">
+        <v>0.4375</v>
+      </c>
+      <c r="B9" s="57"/>
+      <c r="C9" s="21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18" customHeight="1">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18" customHeight="1">
+      <c r="A11" s="10"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="18" customHeight="1">
+      <c r="A12" s="22">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="B12" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="18" customHeight="1">
+      <c r="A13" s="10"/>
+      <c r="B13" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="41"/>
+    </row>
+    <row r="14" spans="1:3" ht="18" customHeight="1">
+      <c r="A14" s="34">
+        <v>0.46875</v>
+      </c>
+      <c r="B14" s="35"/>
+      <c r="C14" s="19"/>
+    </row>
+    <row r="15" spans="1:3" ht="18" customHeight="1">
+      <c r="A15" s="20">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="B15" s="58"/>
+      <c r="C15" s="42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="18" customHeight="1">
+      <c r="A16" s="10"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="12"/>
+    </row>
+    <row r="17" spans="1:3" ht="18" customHeight="1">
+      <c r="A17" s="13"/>
+      <c r="B17" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="39"/>
+    </row>
+    <row r="18" spans="1:3" ht="18" customHeight="1">
+      <c r="A18" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+    </row>
+    <row r="19" spans="1:3" ht="18" customHeight="1">
+      <c r="A19" s="26"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="18" customHeight="1">
+      <c r="A20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="31"/>
+    </row>
+    <row r="21" spans="1:3" ht="18" customHeight="1">
+      <c r="A21" s="16">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3" ht="18" customHeight="1">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="40"/>
+    </row>
+    <row r="23" spans="1:3" ht="18" customHeight="1">
+      <c r="A23" s="10"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="56"/>
+    </row>
+    <row r="24" spans="1:3" ht="18" customHeight="1">
+      <c r="A24" s="22">
+        <v>0.5625</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="50" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="18" customHeight="1">
+      <c r="A25" s="20">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="18" customHeight="1">
+      <c r="A26" s="18"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="18" customHeight="1">
+      <c r="A27" s="20">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="37"/>
+    </row>
+    <row r="28" spans="1:3" ht="18" customHeight="1">
+      <c r="A28" s="10"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="12"/>
+    </row>
+    <row r="29" spans="1:3" ht="18" customHeight="1">
+      <c r="A29" s="20">
+        <v>0.59375</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="19"/>
+    </row>
+    <row r="30" spans="1:3" ht="18" customHeight="1">
+      <c r="A30" s="22">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="B30" s="33"/>
+      <c r="C30" s="37"/>
+    </row>
+    <row r="31" spans="1:3" ht="18" customHeight="1">
+      <c r="A31" s="10"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="12"/>
+    </row>
+    <row r="32" spans="1:3" ht="18" customHeight="1">
+      <c r="A32" s="18"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="12"/>
+    </row>
+    <row r="33" spans="1:3" ht="18" customHeight="1">
+      <c r="A33" s="20">
+        <v>0.625</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="18" customHeight="1">
+      <c r="A34" s="10"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="12"/>
+    </row>
+    <row r="35" spans="1:3" ht="18" customHeight="1">
+      <c r="A35" s="10"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="19"/>
+    </row>
+    <row r="36" spans="1:3" ht="18" customHeight="1">
+      <c r="A36" s="22">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="B36" s="11"/>
+      <c r="C36" s="12"/>
+    </row>
+    <row r="37" spans="1:3" ht="18" customHeight="1">
+      <c r="A37" s="10"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="12"/>
+    </row>
+    <row r="38" spans="1:3" ht="18" customHeight="1">
+      <c r="A38" s="13"/>
+      <c r="B38" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="C38" s="15"/>
+    </row>
+    <row r="39" spans="1:3" ht="18" customHeight="1">
+      <c r="A39" s="16">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="9"/>
+    </row>
+    <row r="40" spans="1:3" ht="18" customHeight="1">
+      <c r="A40" s="10"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="12"/>
+    </row>
+    <row r="41" spans="1:3" ht="18" customHeight="1">
+      <c r="A41" s="10"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="12"/>
+    </row>
+    <row r="42" spans="1:3" ht="18" customHeight="1">
+      <c r="A42" s="13"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" scale="81" orientation="portrait" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72876C56-7EA6-4267-9E44-4ACD1CE24551}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:C42"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="14.796875" customWidth="1"/>
+    <col min="2" max="2" width="22.796875" customWidth="1"/>
+    <col min="3" max="3" width="80.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="27" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="27" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18" customHeight="1">
+      <c r="A3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18" customHeight="1">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18" customHeight="1">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18" customHeight="1">
+      <c r="A6" s="16">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" spans="1:3" ht="18" customHeight="1">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="18" customHeight="1">
+      <c r="A8" s="18"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18" customHeight="1">
+      <c r="A9" s="20">
+        <v>0.4375</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="21" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18" customHeight="1">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18" customHeight="1">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="18" customHeight="1">
+      <c r="A12" s="22">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="B12" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="18" customHeight="1">
+      <c r="A13" s="20">
+        <v>0.46875</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="50"/>
+    </row>
+    <row r="14" spans="1:3" ht="18" customHeight="1">
+      <c r="A14" s="34"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="19"/>
+    </row>
+    <row r="15" spans="1:3" ht="18" customHeight="1">
+      <c r="A15" s="20">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="B15" s="44"/>
+      <c r="C15" s="42"/>
+    </row>
+    <row r="16" spans="1:3" ht="18" customHeight="1">
+      <c r="A16" s="10"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="12"/>
+    </row>
+    <row r="17" spans="1:3" ht="18" customHeight="1">
+      <c r="A17" s="13"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="39"/>
+    </row>
+    <row r="18" spans="1:3" ht="18" customHeight="1">
+      <c r="A18" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+    </row>
+    <row r="19" spans="1:3" ht="18" customHeight="1">
+      <c r="A19" s="26"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="18" customHeight="1">
+      <c r="A20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="31"/>
+    </row>
+    <row r="21" spans="1:3" ht="18" customHeight="1">
+      <c r="A21" s="16">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="B21" s="52"/>
+      <c r="C21" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="18" customHeight="1">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+    </row>
+    <row r="23" spans="1:3" ht="18" customHeight="1">
+      <c r="A23" s="10"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="56"/>
+    </row>
+    <row r="24" spans="1:3" ht="18" customHeight="1">
+      <c r="A24" s="22">
+        <v>0.5625</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="42"/>
+    </row>
+    <row r="25" spans="1:3" ht="18" customHeight="1">
+      <c r="A25" s="20">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="B25" s="48"/>
+      <c r="C25" s="42"/>
+    </row>
+    <row r="26" spans="1:3" ht="18" customHeight="1">
+      <c r="A26" s="18"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="19"/>
+    </row>
+    <row r="27" spans="1:3" ht="18" customHeight="1">
+      <c r="A27" s="20">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="18" customHeight="1">
+      <c r="A28" s="10"/>
+      <c r="B28" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" s="64" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="18" customHeight="1">
+      <c r="A29" s="20">
+        <v>0.59375</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="42"/>
+    </row>
+    <row r="30" spans="1:3" ht="18" customHeight="1">
+      <c r="A30" s="22">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="B30" s="33"/>
+      <c r="C30" s="37"/>
+    </row>
+    <row r="31" spans="1:3" ht="18" customHeight="1">
+      <c r="A31" s="10"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="18" customHeight="1">
+      <c r="A32" s="18"/>
+      <c r="B32" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="19"/>
+    </row>
+    <row r="33" spans="1:3" ht="18" customHeight="1">
+      <c r="A33" s="20">
+        <v>0.625</v>
+      </c>
+      <c r="B33" s="11"/>
+      <c r="C33" s="12"/>
+    </row>
+    <row r="34" spans="1:3" ht="18" customHeight="1">
+      <c r="A34" s="10"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="18" customHeight="1">
+      <c r="A35" s="10"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="18" customHeight="1">
+      <c r="A36" s="22">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="B36" s="11"/>
+      <c r="C36" s="12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="18" customHeight="1">
+      <c r="A37" s="10"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="12"/>
+    </row>
+    <row r="38" spans="1:3" ht="18" customHeight="1">
+      <c r="A38" s="13"/>
+      <c r="B38" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="C38" s="49"/>
+    </row>
+    <row r="39" spans="1:3" ht="18" customHeight="1">
+      <c r="A39" s="16">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="18" customHeight="1">
+      <c r="A40" s="10"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="18" customHeight="1">
+      <c r="A41" s="10"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="18" customHeight="1">
+      <c r="A42" s="13"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" scale="81" orientation="portrait" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D1470D-4B52-EA4E-AC0F-755668E67B2F}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:C42"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1390,22 +2321,16 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="B12" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>19</v>
+        <v>132</v>
+      </c>
+      <c r="C12" s="62" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18" customHeight="1">
-      <c r="A13" s="20">
-        <v>0.46875</v>
-      </c>
-      <c r="B13" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="50" t="s">
-        <v>21</v>
-      </c>
+      <c r="A13" s="20"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="50"/>
     </row>
     <row r="14" spans="1:3" ht="18" customHeight="1">
       <c r="A14" s="34"/>
@@ -1416,8 +2341,12 @@
       <c r="A15" s="20">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="42"/>
+      <c r="B15" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="18" customHeight="1">
       <c r="A16" s="10"/>
@@ -1427,9 +2356,7 @@
     <row r="17" spans="1:3" ht="18" customHeight="1">
       <c r="A17" s="13"/>
       <c r="B17" s="46"/>
-      <c r="C17" s="39" t="s">
-        <v>22</v>
-      </c>
+      <c r="C17" s="39"/>
     </row>
     <row r="18" spans="1:3" ht="18" customHeight="1">
       <c r="A18" s="23">
@@ -1442,7 +2369,7 @@
       <c r="A19" s="26"/>
       <c r="B19" s="27"/>
       <c r="C19" s="28" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18" customHeight="1">
@@ -1455,10 +2382,10 @@
         <v>0.54166666666666696</v>
       </c>
       <c r="B21" s="52" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18" customHeight="1">
@@ -1475,20 +2402,12 @@
       <c r="A24" s="22">
         <v>0.5625</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="42" t="s">
-        <v>25</v>
-      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="42"/>
     </row>
     <row r="25" spans="1:3" ht="18" customHeight="1">
-      <c r="A25" s="20">
-        <v>0.55208333333333337</v>
-      </c>
-      <c r="B25" s="48" t="s">
-        <v>20</v>
-      </c>
+      <c r="A25" s="20"/>
+      <c r="B25" s="48"/>
       <c r="C25" s="42"/>
     </row>
     <row r="26" spans="1:3" ht="18" customHeight="1">
@@ -1500,40 +2419,46 @@
       <c r="A27" s="20">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="12"/>
+      <c r="B27" s="63" t="s">
+        <v>134</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="28" spans="1:3" ht="18" customHeight="1">
       <c r="A28" s="10"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="12"/>
+      <c r="B28" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" s="64" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="29" spans="1:3" ht="18" customHeight="1">
-      <c r="A29" s="20">
-        <v>0.59375</v>
-      </c>
+      <c r="A29" s="20"/>
       <c r="B29" s="11"/>
-      <c r="C29" s="42"/>
+      <c r="C29" s="65" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="30" spans="1:3" ht="18" customHeight="1">
       <c r="A30" s="22">
         <v>0.60416666666666696</v>
       </c>
       <c r="B30" s="33"/>
-      <c r="C30" s="37"/>
+      <c r="C30" s="66" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="31" spans="1:3" ht="18" customHeight="1">
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
-      <c r="C31" s="12" t="s">
-        <v>26</v>
-      </c>
+      <c r="C31" s="12"/>
     </row>
     <row r="32" spans="1:3" ht="18" customHeight="1">
       <c r="A32" s="18"/>
-      <c r="B32" s="45" t="s">
-        <v>27</v>
-      </c>
+      <c r="B32" s="45"/>
       <c r="C32" s="19"/>
     </row>
     <row r="33" spans="1:3" ht="18" customHeight="1">
@@ -1546,18 +2471,14 @@
     <row r="34" spans="1:3" ht="18" customHeight="1">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
-      <c r="C34" s="12" t="s">
-        <v>28</v>
-      </c>
+      <c r="C34" s="12"/>
     </row>
     <row r="35" spans="1:3" ht="18" customHeight="1">
       <c r="A35" s="10"/>
       <c r="B35" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>29</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="C35" s="19"/>
     </row>
     <row r="36" spans="1:3" ht="18" customHeight="1">
       <c r="A36" s="22">
@@ -1569,12 +2490,18 @@
     <row r="37" spans="1:3" ht="18" customHeight="1">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
-      <c r="C37" s="12"/>
+      <c r="C37" s="12" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="38" spans="1:3" ht="18" customHeight="1">
       <c r="A38" s="13"/>
-      <c r="B38" s="46"/>
-      <c r="C38" s="49"/>
+      <c r="B38" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="39" spans="1:3" ht="18" customHeight="1">
       <c r="A39" s="16">
@@ -1582,7 +2509,7 @@
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="9" t="s">
-        <v>30</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="18" customHeight="1">
@@ -1603,7 +2530,7 @@
   </sheetData>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="81" orientation="portrait" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
@@ -1611,8 +2538,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B7DCC2-65FD-4912-AB83-5E9E496035B8}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
@@ -1628,11 +2558,11 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="27" customHeight="1">
@@ -1693,7 +2623,7 @@
       <c r="A8" s="18"/>
       <c r="B8" s="11"/>
       <c r="C8" s="19" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18" customHeight="1">
@@ -1702,7 +2632,7 @@
       </c>
       <c r="B9" s="57"/>
       <c r="C9" s="21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18" customHeight="1">
@@ -1718,7 +2648,7 @@
       <c r="A11" s="10"/>
       <c r="B11" s="32"/>
       <c r="C11" s="19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18" customHeight="1">
@@ -1729,13 +2659,13 @@
         <v>18</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18" customHeight="1">
       <c r="A13" s="10"/>
       <c r="B13" s="47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="41"/>
     </row>
@@ -1759,16 +2689,16 @@
       <c r="A16" s="10"/>
       <c r="B16" s="35"/>
       <c r="C16" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18" customHeight="1">
       <c r="A17" s="13"/>
       <c r="B17" s="46" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18" customHeight="1">
@@ -1776,7 +2706,7 @@
         <v>0.5</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C18" s="25"/>
     </row>
@@ -1784,13 +2714,13 @@
       <c r="A19" s="26"/>
       <c r="B19" s="27"/>
       <c r="C19" s="28" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18" customHeight="1">
       <c r="A20" s="29"/>
       <c r="B20" s="30" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C20" s="31"/>
     </row>
@@ -1800,7 +2730,7 @@
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18" customHeight="1">
@@ -1816,7 +2746,7 @@
       <c r="A23" s="10"/>
       <c r="B23" s="32"/>
       <c r="C23" s="56" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18" customHeight="1">
@@ -1827,7 +2757,7 @@
         <v>18</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18" customHeight="1">
@@ -1835,7 +2765,7 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="B25" s="48" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" s="42"/>
     </row>
@@ -1874,13 +2804,13 @@
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
       <c r="C31" s="12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="18" customHeight="1">
       <c r="A32" s="18"/>
       <c r="B32" s="45" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C32" s="19"/>
     </row>
@@ -1895,16 +2825,16 @@
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18" customHeight="1">
       <c r="A35" s="10"/>
       <c r="B35" s="45" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18" customHeight="1">
@@ -1930,7 +2860,7 @@
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="18" customHeight="1">
@@ -1951,7 +2881,7 @@
   </sheetData>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" scale="81" orientation="portrait" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
@@ -1959,8 +2889,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB19622-D11F-4FA4-B48E-AFF074A10F6F}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
@@ -1976,11 +2909,11 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="27" customHeight="1">
@@ -2041,7 +2974,7 @@
       <c r="A8" s="18"/>
       <c r="B8" s="11"/>
       <c r="C8" s="19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18" customHeight="1">
@@ -2050,7 +2983,7 @@
       </c>
       <c r="B9" s="57"/>
       <c r="C9" s="21" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18" customHeight="1">
@@ -2066,7 +2999,7 @@
       <c r="A11" s="10"/>
       <c r="B11" s="32"/>
       <c r="C11" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18" customHeight="1">
@@ -2077,13 +3010,13 @@
         <v>18</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18" customHeight="1">
       <c r="A13" s="10"/>
       <c r="B13" s="60" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="41"/>
     </row>
@@ -2100,23 +3033,23 @@
       </c>
       <c r="B15" s="58"/>
       <c r="C15" s="42" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="18" customHeight="1">
       <c r="A16" s="10"/>
       <c r="B16" s="35"/>
       <c r="C16" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18" customHeight="1">
       <c r="A17" s="13"/>
       <c r="B17" s="46" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18" customHeight="1">
@@ -2130,7 +3063,7 @@
       <c r="A19" s="26"/>
       <c r="B19" s="27"/>
       <c r="C19" s="28" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18" customHeight="1">
@@ -2143,14 +3076,14 @@
         <v>0.54166666666666696</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C21" s="9"/>
     </row>
     <row r="22" spans="1:3" ht="18" customHeight="1">
       <c r="A22" s="10"/>
       <c r="B22" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C22" s="40"/>
     </row>
@@ -2165,7 +3098,7 @@
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="50" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18" customHeight="1">
@@ -2174,14 +3107,14 @@
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="50" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18" customHeight="1">
       <c r="A26" s="18"/>
       <c r="B26" s="45"/>
       <c r="C26" s="19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18" customHeight="1">
@@ -2260,7 +3193,7 @@
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="18" customHeight="1">
@@ -2281,7 +3214,7 @@
   </sheetData>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" scale="81" orientation="portrait" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
@@ -2289,8 +3222,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{600793BC-F99A-422E-97CD-485081B2C299}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
@@ -2306,11 +3242,11 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="27" customHeight="1">
@@ -2371,7 +3307,7 @@
       <c r="A8" s="18"/>
       <c r="B8" s="11"/>
       <c r="C8" s="19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18" customHeight="1">
@@ -2380,7 +3316,7 @@
       </c>
       <c r="B9" s="57"/>
       <c r="C9" s="21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18" customHeight="1">
@@ -2396,7 +3332,7 @@
       <c r="A11" s="10"/>
       <c r="B11" s="32"/>
       <c r="C11" s="19" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18" customHeight="1">
@@ -2407,13 +3343,13 @@
         <v>18</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18" customHeight="1">
       <c r="A13" s="10"/>
       <c r="B13" s="47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="41"/>
     </row>
@@ -2432,23 +3368,23 @@
         <v>18</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="18" customHeight="1">
       <c r="A16" s="10"/>
       <c r="B16" s="35"/>
       <c r="C16" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18" customHeight="1">
       <c r="A17" s="13"/>
       <c r="B17" s="46" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18" customHeight="1">
@@ -2456,7 +3392,7 @@
         <v>0.5</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C18" s="25"/>
     </row>
@@ -2464,13 +3400,13 @@
       <c r="A19" s="26"/>
       <c r="B19" s="27"/>
       <c r="C19" s="28" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18" customHeight="1">
       <c r="A20" s="29"/>
       <c r="B20" s="30" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C20" s="31"/>
     </row>
@@ -2480,16 +3416,16 @@
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18" customHeight="1">
       <c r="A22" s="10"/>
       <c r="B22" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18" customHeight="1">
@@ -2507,7 +3443,7 @@
       </c>
       <c r="B24" s="33"/>
       <c r="C24" s="51" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18" customHeight="1">
@@ -2518,13 +3454,13 @@
         <v>18</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18" customHeight="1">
       <c r="A26" s="18"/>
       <c r="B26" s="45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="19"/>
     </row>
@@ -2548,7 +3484,7 @@
         <v>15</v>
       </c>
       <c r="C29" s="50" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18" customHeight="1">
@@ -2557,7 +3493,7 @@
       </c>
       <c r="B30" s="33"/>
       <c r="C30" s="51" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18" customHeight="1">
@@ -2566,14 +3502,14 @@
         <v>18</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="18" customHeight="1">
       <c r="A32" s="18"/>
       <c r="B32" s="32"/>
       <c r="C32" s="19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="18" customHeight="1">
@@ -2587,16 +3523,16 @@
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18" customHeight="1">
       <c r="A35" s="10"/>
       <c r="B35" s="45" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18" customHeight="1">
@@ -2604,10 +3540,10 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="18" customHeight="1">
@@ -2618,10 +3554,10 @@
     <row r="38" spans="1:3" ht="18" customHeight="1">
       <c r="A38" s="13"/>
       <c r="B38" s="46" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C38" s="49" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="18" customHeight="1">
@@ -2630,21 +3566,21 @@
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="18" customHeight="1">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="18" customHeight="1">
       <c r="A41" s="10"/>
       <c r="B41" s="11"/>
       <c r="C41" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="18" customHeight="1">
@@ -2655,7 +3591,7 @@
   </sheetData>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" scale="81" orientation="portrait" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
@@ -2663,8 +3599,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{361A9DDA-7329-496B-94E7-3CDBEB4E90B1}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
@@ -2680,11 +3619,11 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="27" customHeight="1">
@@ -2745,7 +3684,7 @@
       <c r="A8" s="18"/>
       <c r="B8" s="11"/>
       <c r="C8" s="12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18" customHeight="1">
@@ -2754,7 +3693,7 @@
       </c>
       <c r="B9" s="57"/>
       <c r="C9" s="21" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18" customHeight="1">
@@ -2770,7 +3709,7 @@
       <c r="A11" s="10"/>
       <c r="B11" s="11"/>
       <c r="C11" s="19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18" customHeight="1">
@@ -2779,16 +3718,16 @@
       </c>
       <c r="B12" s="33"/>
       <c r="C12" s="37" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18" customHeight="1">
       <c r="A13" s="10"/>
       <c r="B13" s="48" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="18" customHeight="1">
@@ -2809,16 +3748,16 @@
       <c r="A16" s="10"/>
       <c r="B16" s="35"/>
       <c r="C16" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18" customHeight="1">
       <c r="A17" s="13"/>
       <c r="B17" s="46" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18" customHeight="1">
@@ -2826,7 +3765,7 @@
         <v>0.5</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C18" s="25"/>
     </row>
@@ -2834,13 +3773,13 @@
       <c r="A19" s="26"/>
       <c r="B19" s="27"/>
       <c r="C19" s="28" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18" customHeight="1">
       <c r="A20" s="29"/>
       <c r="B20" s="30" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C20" s="31"/>
     </row>
@@ -2850,7 +3789,7 @@
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18" customHeight="1">
@@ -2859,7 +3798,7 @@
         <v>15</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18" customHeight="1">
@@ -2868,7 +3807,7 @@
         <v>18</v>
       </c>
       <c r="C23" s="56" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18" customHeight="1">
@@ -2877,16 +3816,16 @@
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="42" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18" customHeight="1">
       <c r="A25" s="10"/>
       <c r="B25" s="48" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18" customHeight="1">
@@ -2900,7 +3839,7 @@
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18" customHeight="1">
@@ -2912,7 +3851,7 @@
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18" customHeight="1">
@@ -2923,14 +3862,14 @@
         <v>18</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18" customHeight="1">
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
       <c r="C31" s="12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="18" customHeight="1">
@@ -2949,16 +3888,16 @@
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18" customHeight="1">
       <c r="A35" s="10"/>
       <c r="B35" s="45" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18" customHeight="1">
@@ -2966,10 +3905,10 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="18" customHeight="1">
@@ -2980,7 +3919,7 @@
     <row r="38" spans="1:3" ht="18" customHeight="1">
       <c r="A38" s="13"/>
       <c r="B38" s="46" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C38" s="15"/>
     </row>
@@ -2990,14 +3929,14 @@
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="18" customHeight="1">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="18" customHeight="1">
@@ -3013,7 +3952,7 @@
   </sheetData>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" scale="81" orientation="portrait" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
@@ -3021,12 +3960,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -3039,11 +3981,11 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="27" customHeight="1">
@@ -3087,26 +4029,26 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18" customHeight="1">
       <c r="A7" s="10"/>
       <c r="B7" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18" customHeight="1">
       <c r="A8" s="18"/>
       <c r="B8" s="11"/>
       <c r="C8" s="19" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18" customHeight="1">
@@ -3115,21 +4057,21 @@
       </c>
       <c r="B9" s="57"/>
       <c r="C9" s="21" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18" customHeight="1">
       <c r="A10" s="10"/>
       <c r="B10" s="11"/>
       <c r="C10" s="12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="11"/>
       <c r="C11" s="19" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18" customHeight="1">
@@ -3138,7 +4080,7 @@
       </c>
       <c r="B12" s="33"/>
       <c r="C12" s="21" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18" customHeight="1">
@@ -3151,10 +4093,10 @@
         <v>0.46875</v>
       </c>
       <c r="B14" s="55" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="18" customHeight="1">
@@ -3162,17 +4104,17 @@
         <v>0.47916666666666702</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="18" customHeight="1">
       <c r="A16" s="10"/>
       <c r="B16" s="35"/>
       <c r="C16" s="12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18" customHeight="1">
@@ -3181,7 +4123,7 @@
         <v>18</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18" customHeight="1">
@@ -3195,7 +4137,7 @@
       <c r="A19" s="26"/>
       <c r="B19" s="27"/>
       <c r="C19" s="28" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18" customHeight="1">
@@ -3208,17 +4150,17 @@
         <v>0.54166666666666696</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18" customHeight="1">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="12" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18" customHeight="1">
@@ -3227,7 +4169,7 @@
         <v>18</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18" customHeight="1">
@@ -3235,24 +4177,24 @@
         <v>0.5625</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C24" s="21"/>
     </row>
     <row r="25" spans="1:3" ht="18" customHeight="1">
       <c r="A25" s="10"/>
       <c r="B25" s="11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18" customHeight="1">
       <c r="A26" s="18"/>
       <c r="B26" s="32"/>
       <c r="C26" s="19" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18" customHeight="1">
@@ -3261,7 +4203,7 @@
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18" customHeight="1">
@@ -3272,10 +4214,10 @@
     <row r="29" spans="1:3" ht="18" customHeight="1">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18" customHeight="1">
@@ -3286,7 +4228,7 @@
         <v>18</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18" customHeight="1">
@@ -3297,10 +4239,10 @@
     <row r="32" spans="1:3" ht="18" customHeight="1">
       <c r="A32" s="18"/>
       <c r="B32" s="32" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="18" customHeight="1">
@@ -3318,10 +4260,10 @@
     <row r="35" spans="1:3" ht="18" customHeight="1">
       <c r="A35" s="10"/>
       <c r="B35" s="32" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18" customHeight="1">
@@ -3329,23 +4271,23 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="18" customHeight="1">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="18" customHeight="1">
       <c r="A38" s="13"/>
       <c r="B38" s="14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C38" s="15"/>
     </row>
@@ -3355,7 +4297,7 @@
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="18" customHeight="1">
@@ -3376,23 +4318,10 @@
   </sheetData>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" scale="81" orientation="portrait" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE3B64BF-8265-4264-9FEC-B53C14403CD4}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
-  <phoneticPr fontId="7"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/20180620アドバンススケジュール.xlsx
+++ b/20180620アドバンススケジュール.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10618"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a-pro/Desktop/Z DRIVE/posi-work/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rei/Posi-work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80878B0E-A083-6247-A832-014061B7FE0A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00B7ED36-B03F-A747-B8D7-440C614E02F3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23700" windowHeight="17540" tabRatio="979" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23700" windowHeight="16560" tabRatio="979" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ad-8" sheetId="9" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Ad-1" sheetId="1" r:id="rId8"/>
   </sheets>
   <calcPr calcId="179016"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -274,9 +275,6 @@
     <t>　カットの精度・型紙の使い方・ガラスを使った型の取り方</t>
   </si>
   <si>
-    <t>　　　　　確認：縦補助スコアやる？</t>
-  </si>
-  <si>
     <t>　オーバーラップ＋スランピングorサギング（5ミリFB）（選択可）</t>
   </si>
   <si>
@@ -459,7 +457,7 @@
   </si>
   <si>
     <t>　＊サギング窯入れ　サギングの説明</t>
-    <rPh sb="33" eb="35">
+    <rPh sb="0" eb="17">
       <t>セツメ</t>
     </rPh>
     <phoneticPr fontId="7"/>
@@ -487,7 +485,7 @@
   </si>
   <si>
     <t>　落ち方の要素：①温度　②厚み　③色　④高さ　⑤口の大きさ</t>
-    <rPh sb="29" eb="30">
+    <rPh sb="0" eb="29">
       <t>オt</t>
     </rPh>
     <phoneticPr fontId="7"/>
@@ -558,7 +556,7 @@
   </si>
   <si>
     <t>　＊FBでの型を作る</t>
-    <rPh sb="10" eb="11">
+    <rPh sb="0" eb="10">
       <t>カt</t>
     </rPh>
     <phoneticPr fontId="7"/>
@@ -655,6 +653,10 @@
     <rPh sb="0" eb="2">
       <t>シュウリョ</t>
     </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>　　　　　</t>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -1536,7 +1538,7 @@
   </sheetPr>
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -1549,11 +1551,11 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="27" customHeight="1">
@@ -1614,7 +1616,7 @@
       <c r="A8" s="18"/>
       <c r="B8" s="11"/>
       <c r="C8" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18" customHeight="1">
@@ -1623,7 +1625,7 @@
       </c>
       <c r="B9" s="57"/>
       <c r="C9" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18" customHeight="1">
@@ -1639,7 +1641,7 @@
       <c r="A11" s="10"/>
       <c r="B11" s="32"/>
       <c r="C11" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18" customHeight="1">
@@ -1650,7 +1652,7 @@
         <v>18</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18" customHeight="1">
@@ -1734,7 +1736,7 @@
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18" customHeight="1">
@@ -1794,10 +1796,10 @@
         <v>0.625</v>
       </c>
       <c r="B33" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="C33" s="21" t="s">
         <v>167</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="18" customHeight="1">
@@ -1825,7 +1827,7 @@
     <row r="38" spans="1:3" ht="18" customHeight="1">
       <c r="A38" s="13"/>
       <c r="B38" s="46" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C38" s="15"/>
     </row>
@@ -1882,11 +1884,11 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="27" customHeight="1">
@@ -1947,7 +1949,7 @@
       <c r="A8" s="18"/>
       <c r="B8" s="32"/>
       <c r="C8" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18" customHeight="1">
@@ -1956,7 +1958,7 @@
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18" customHeight="1">
@@ -1972,7 +1974,7 @@
       <c r="A11" s="10"/>
       <c r="B11" s="11"/>
       <c r="C11" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18" customHeight="1">
@@ -1983,7 +1985,7 @@
         <v>18</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18" customHeight="1">
@@ -2042,7 +2044,7 @@
       </c>
       <c r="B21" s="52"/>
       <c r="C21" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18" customHeight="1">
@@ -2079,19 +2081,19 @@
         <v>0.58333333333333304</v>
       </c>
       <c r="B27" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="C27" s="12" t="s">
         <v>150</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18" customHeight="1">
       <c r="A28" s="10"/>
       <c r="B28" s="48" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C28" s="64" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18" customHeight="1">
@@ -2140,7 +2142,7 @@
       <c r="A35" s="10"/>
       <c r="B35" s="45"/>
       <c r="C35" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18" customHeight="1">
@@ -2149,7 +2151,7 @@
       </c>
       <c r="B36" s="11"/>
       <c r="C36" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="18" customHeight="1">
@@ -2160,7 +2162,7 @@
     <row r="38" spans="1:3" ht="18" customHeight="1">
       <c r="A38" s="13"/>
       <c r="B38" s="46" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C38" s="49"/>
     </row>
@@ -2170,21 +2172,21 @@
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="18" customHeight="1">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="18" customHeight="1">
       <c r="A41" s="10"/>
       <c r="B41" s="11"/>
       <c r="C41" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="18" customHeight="1">
@@ -2321,10 +2323,10 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="B12" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C12" s="62" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18" customHeight="1">
@@ -2342,10 +2344,10 @@
         <v>0.47916666666666702</v>
       </c>
       <c r="B15" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="18" customHeight="1">
@@ -2420,26 +2422,26 @@
         <v>0.58333333333333304</v>
       </c>
       <c r="B27" s="63" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27" s="12" t="s">
         <v>134</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18" customHeight="1">
       <c r="A28" s="10"/>
       <c r="B28" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" s="64" t="s">
         <v>136</v>
-      </c>
-      <c r="C28" s="64" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18" customHeight="1">
       <c r="A29" s="20"/>
       <c r="B29" s="11"/>
       <c r="C29" s="65" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18" customHeight="1">
@@ -2448,7 +2450,7 @@
       </c>
       <c r="B30" s="33"/>
       <c r="C30" s="66" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18" customHeight="1">
@@ -2476,7 +2478,7 @@
     <row r="35" spans="1:3" ht="18" customHeight="1">
       <c r="A35" s="10"/>
       <c r="B35" s="45" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C35" s="19"/>
     </row>
@@ -2497,10 +2499,10 @@
     <row r="38" spans="1:3" ht="18" customHeight="1">
       <c r="A38" s="13"/>
       <c r="B38" s="46" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="18" customHeight="1">
@@ -2509,7 +2511,7 @@
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="18" customHeight="1">
@@ -3606,8 +3608,8 @@
   </sheetPr>
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -3727,7 +3729,7 @@
         <v>19</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>80</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="18" customHeight="1">
@@ -3757,7 +3759,7 @@
         <v>24</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18" customHeight="1">
@@ -3773,7 +3775,7 @@
       <c r="A19" s="26"/>
       <c r="B19" s="27"/>
       <c r="C19" s="28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18" customHeight="1">
@@ -3789,7 +3791,7 @@
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18" customHeight="1">
@@ -3798,7 +3800,7 @@
         <v>15</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18" customHeight="1">
@@ -3807,7 +3809,7 @@
         <v>18</v>
       </c>
       <c r="C23" s="56" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18" customHeight="1">
@@ -3816,16 +3818,16 @@
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18" customHeight="1">
       <c r="A25" s="10"/>
       <c r="B25" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18" customHeight="1">
@@ -3839,7 +3841,7 @@
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18" customHeight="1">
@@ -3862,7 +3864,7 @@
         <v>18</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18" customHeight="1">
@@ -3897,7 +3899,7 @@
         <v>24</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18" customHeight="1">
@@ -3908,7 +3910,7 @@
         <v>69</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="18" customHeight="1">
@@ -3929,14 +3931,14 @@
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="18" customHeight="1">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="18" customHeight="1">
@@ -3981,11 +3983,11 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="27" customHeight="1">
@@ -4029,26 +4031,26 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="B6" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>97</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18" customHeight="1">
       <c r="A7" s="10"/>
       <c r="B7" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>99</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18" customHeight="1">
       <c r="A8" s="18"/>
       <c r="B8" s="11"/>
       <c r="C8" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18" customHeight="1">
@@ -4057,21 +4059,21 @@
       </c>
       <c r="B9" s="57"/>
       <c r="C9" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18" customHeight="1">
       <c r="A10" s="10"/>
       <c r="B10" s="11"/>
       <c r="C10" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="11"/>
       <c r="C11" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18" customHeight="1">
@@ -4080,7 +4082,7 @@
       </c>
       <c r="B12" s="33"/>
       <c r="C12" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18" customHeight="1">
@@ -4093,10 +4095,10 @@
         <v>0.46875</v>
       </c>
       <c r="B14" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="19" t="s">
         <v>106</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="18" customHeight="1">
@@ -4104,17 +4106,17 @@
         <v>0.47916666666666702</v>
       </c>
       <c r="B15" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>108</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="18" customHeight="1">
       <c r="A16" s="10"/>
       <c r="B16" s="35"/>
       <c r="C16" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18" customHeight="1">
@@ -4123,7 +4125,7 @@
         <v>18</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18" customHeight="1">
@@ -4137,7 +4139,7 @@
       <c r="A19" s="26"/>
       <c r="B19" s="27"/>
       <c r="C19" s="28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18" customHeight="1">
@@ -4150,17 +4152,17 @@
         <v>0.54166666666666696</v>
       </c>
       <c r="B21" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>112</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18" customHeight="1">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18" customHeight="1">
@@ -4169,7 +4171,7 @@
         <v>18</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18" customHeight="1">
@@ -4177,7 +4179,7 @@
         <v>0.5625</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C24" s="21"/>
     </row>
@@ -4187,14 +4189,14 @@
         <v>21</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18" customHeight="1">
       <c r="A26" s="18"/>
       <c r="B26" s="32"/>
       <c r="C26" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18" customHeight="1">
@@ -4203,7 +4205,7 @@
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18" customHeight="1">
@@ -4214,7 +4216,7 @@
     <row r="29" spans="1:3" ht="18" customHeight="1">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>45</v>
@@ -4228,7 +4230,7 @@
         <v>18</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18" customHeight="1">
@@ -4239,10 +4241,10 @@
     <row r="32" spans="1:3" ht="18" customHeight="1">
       <c r="A32" s="18"/>
       <c r="B32" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" s="19" t="s">
         <v>122</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="18" customHeight="1">
@@ -4260,10 +4262,10 @@
     <row r="35" spans="1:3" ht="18" customHeight="1">
       <c r="A35" s="10"/>
       <c r="B35" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35" s="19" t="s">
         <v>124</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18" customHeight="1">
@@ -4271,17 +4273,17 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B36" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36" s="12" t="s">
         <v>126</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="18" customHeight="1">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="18" customHeight="1">
@@ -4297,7 +4299,7 @@
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="18" customHeight="1">
